--- a/data/input/absenteeism_data_18.xlsx
+++ b/data/input/absenteeism_data_18.xlsx
@@ -476,248 +476,248 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54619</v>
+        <v>52891</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Campos</t>
+          <t>Dra. Maria Cecília Rezende</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45084</v>
       </c>
       <c r="G2" t="n">
-        <v>8689.09</v>
+        <v>3253.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5296</v>
+        <v>39870</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cauê Costela</t>
+          <t>Sr. Fernando Nunes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45088</v>
+        <v>45097</v>
       </c>
       <c r="G3" t="n">
-        <v>7848.95</v>
+        <v>11573.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>76050</v>
+        <v>21487</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Camila Melo</t>
+          <t>Dr. Lorenzo Porto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45100</v>
       </c>
       <c r="G4" t="n">
-        <v>10003.16</v>
+        <v>9525.870000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>49496</v>
+        <v>27251</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Miguel da Luz</t>
+          <t>Lavínia Rodrigues</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45087</v>
       </c>
       <c r="G5" t="n">
-        <v>12355.39</v>
+        <v>6480.73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>88129</v>
+        <v>87475</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bárbara Ramos</t>
+          <t>Yuri Novaes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45096</v>
+        <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>7361.51</v>
+        <v>9302.860000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>42759</v>
+        <v>32514</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Helena Moura</t>
+          <t>Sr. Luigi Cardoso</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45084</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>4777.81</v>
+        <v>3768.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13960</v>
+        <v>82208</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Renan Lima</t>
+          <t>Breno Vieira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>12078.02</v>
+        <v>4601.57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>61068</v>
+        <v>87514</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Larissa Ferreira</t>
+          <t>Dr. João Guilherme Santos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45090</v>
+        <v>45106</v>
       </c>
       <c r="G9" t="n">
-        <v>2898.05</v>
+        <v>5237.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>38943</v>
+        <v>33860</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bruno Dias</t>
+          <t>Isaac Cunha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45106</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>11350.46</v>
+        <v>3944.31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8385</v>
+        <v>56964</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Júlia Campos</t>
+          <t>Srta. Manuela Rocha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>2697.87</v>
+        <v>10386.97</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_18.xlsx
+++ b/data/input/absenteeism_data_18.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>52891</v>
+        <v>30936</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dra. Maria Cecília Rezende</t>
+          <t>Juan das Neves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,27 +494,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45084</v>
+        <v>45083</v>
       </c>
       <c r="G2" t="n">
-        <v>3253.52</v>
+        <v>4548.16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>39870</v>
+        <v>39119</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. Fernando Nunes</t>
+          <t>Ana Lívia Lima</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,80 +523,80 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45097</v>
+        <v>45081</v>
       </c>
       <c r="G3" t="n">
-        <v>11573.87</v>
+        <v>6524.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>21487</v>
+        <v>21708</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Lorenzo Porto</t>
+          <t>Eloah Costela</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45083</v>
       </c>
       <c r="G4" t="n">
-        <v>9525.870000000001</v>
+        <v>8000.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27251</v>
+        <v>12357</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lavínia Rodrigues</t>
+          <t>Bianca Campos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45087</v>
+        <v>45079</v>
       </c>
       <c r="G5" t="n">
-        <v>6480.73</v>
+        <v>7588.49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>87475</v>
+        <v>71294</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yuri Novaes</t>
+          <t>Isis Teixeira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,89 +606,89 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45087</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>9302.860000000001</v>
+        <v>3672.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>32514</v>
+        <v>84623</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Luigi Cardoso</t>
+          <t>Cauê Gonçalves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>3768.9</v>
+        <v>7131.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>82208</v>
+        <v>60691</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Breno Vieira</t>
+          <t>João Gabriel Ramos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45099</v>
+        <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>4601.57</v>
+        <v>2620.13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>87514</v>
+        <v>62223</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. João Guilherme Santos</t>
+          <t>Maria da Costa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45106</v>
+        <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>5237.66</v>
+        <v>5134.51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33860</v>
+        <v>91590</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Isaac Cunha</t>
+          <t>Isis Almeida</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45095</v>
       </c>
       <c r="G10" t="n">
-        <v>3944.31</v>
+        <v>3565.89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>56964</v>
+        <v>18015</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Srta. Manuela Rocha</t>
+          <t>Danilo Peixoto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45086</v>
+        <v>45098</v>
       </c>
       <c r="G11" t="n">
-        <v>10386.97</v>
+        <v>8418.190000000001</v>
       </c>
     </row>
   </sheetData>
